--- a/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/ASIGNACIONES PLACAS NUEVAS.xlsx
+++ b/01 DOCUEMENTOS/CENTRAL  ARCHIVO   2 0 2 2/ASIGNACIONES PLACAS NUEVAS.xlsx
@@ -13,7 +13,8 @@
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
-    <sheet name="Hoja2" sheetId="2" r:id="rId2"/>
+    <sheet name=" ASIGNACION  PLACAS 2022  " sheetId="2" r:id="rId2"/>
+    <sheet name="PLACAS" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="273" uniqueCount="137">
   <si>
     <t>RELACION DE PLACAS Y N° DE SERIE 2022</t>
   </si>
@@ -442,7 +443,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="12" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -531,8 +532,23 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="22"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <i/>
+      <sz val="22"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="9">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -565,19 +581,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="darkVertical">
-        <bgColor rgb="FFFFFF00"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="10">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -706,11 +711,56 @@
         <color auto="1"/>
       </diagonal>
     </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="thick">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thick">
+        <color auto="1"/>
+      </left>
+      <right style="thick">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="thick">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -897,31 +947,37 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="6" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="justify" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1222,15 +1278,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="65" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
     </row>
     <row r="2" spans="1:10" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
@@ -1982,7 +2038,7 @@
   <dimension ref="A1:F30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1990,20 +2046,20 @@
     <col min="1" max="1" width="5.85546875" customWidth="1"/>
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="13.5703125" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" customWidth="1"/>
+    <col min="4" max="4" width="23.7109375" customWidth="1"/>
     <col min="5" max="5" width="16" customWidth="1"/>
     <col min="6" max="6" width="19.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="66" t="s">
         <v>135</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
+      <c r="B1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
     </row>
     <row r="2" spans="1:6" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="41" t="s">
@@ -2015,7 +2071,7 @@
       <c r="C2" s="41" t="s">
         <v>3</v>
       </c>
-      <c r="D2" s="66" t="s">
+      <c r="D2" s="64" t="s">
         <v>109</v>
       </c>
       <c r="E2" s="42" t="s">
@@ -2259,7 +2315,7 @@
       <c r="C15" s="55">
         <v>2015</v>
       </c>
-      <c r="D15" s="70" t="s">
+      <c r="D15" s="55" t="s">
         <v>41</v>
       </c>
       <c r="E15" s="48" t="s">
@@ -2417,7 +2473,7 @@
       <c r="C23" s="58">
         <v>2021</v>
       </c>
-      <c r="D23" s="71" t="s">
+      <c r="D23" s="70" t="s">
         <v>69</v>
       </c>
       <c r="E23" s="53"/>
@@ -2435,7 +2491,7 @@
       <c r="C24" s="58">
         <v>2021</v>
       </c>
-      <c r="D24" s="71" t="s">
+      <c r="D24" s="70" t="s">
         <v>72</v>
       </c>
       <c r="E24" s="53"/>
@@ -2453,7 +2509,7 @@
       <c r="C25" s="58">
         <v>2022</v>
       </c>
-      <c r="D25" s="71" t="s">
+      <c r="D25" s="70" t="s">
         <v>75</v>
       </c>
       <c r="E25" s="53"/>
@@ -2471,7 +2527,7 @@
       <c r="C26" s="58">
         <v>2018</v>
       </c>
-      <c r="D26" s="71" t="s">
+      <c r="D26" s="70" t="s">
         <v>79</v>
       </c>
       <c r="E26" s="60" t="s">
@@ -2485,7 +2541,7 @@
       <c r="A27" s="23"/>
       <c r="B27" s="62"/>
       <c r="C27" s="62"/>
-      <c r="D27" s="72"/>
+      <c r="D27" s="70"/>
       <c r="E27" s="62"/>
       <c r="F27" s="63"/>
     </row>
@@ -2499,7 +2555,7 @@
       <c r="C28" s="58">
         <v>2021</v>
       </c>
-      <c r="D28" s="71" t="s">
+      <c r="D28" s="70" t="s">
         <v>83</v>
       </c>
       <c r="E28" s="53"/>
@@ -2517,7 +2573,7 @@
       <c r="C29" s="58">
         <v>2012</v>
       </c>
-      <c r="D29" s="71" t="s">
+      <c r="D29" s="70" t="s">
         <v>87</v>
       </c>
       <c r="E29" s="53"/>
@@ -2535,7 +2591,7 @@
       <c r="C30" s="58">
         <v>2010</v>
       </c>
-      <c r="D30" s="71" t="s">
+      <c r="D30" s="70" t="s">
         <v>90</v>
       </c>
       <c r="E30" s="53"/>
@@ -2550,4 +2606,149 @@
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0" footer="0"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:C26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="28.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:3" ht="29.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C1" s="71" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="3:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C2" s="72" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="3:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C3" s="72" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="3:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C4" s="72" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="3:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="72" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="6" spans="3:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="72" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="3:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="72" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="3:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="72" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="9" spans="3:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="72" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="3:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="72" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="3:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="72" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="3:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="72" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="13" spans="3:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="72" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="14" spans="3:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="72" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="15" spans="3:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="72" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="16" spans="3:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="72" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="72" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="18" spans="3:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="72" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="19" spans="3:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="73" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="73" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="73" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="73" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="73" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="73" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" ht="28.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="74" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.32" bottom="0.37" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+</worksheet>
 </file>